--- a/biology/Histoire de la zoologie et de la botanique/Luis_M._Chiappe/Luis_M._Chiappe.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Luis_M._Chiappe/Luis_M._Chiappe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luis María Chiappe est un paléontologue et un paléo-ornithologue américain, né à Buenos Aires en Argentine qui s'est fait connaître surtout pour sa découverte des premiers nids de sauropodes en Patagonie en 1997. Il est l'actuel vice-président des recherches et des collections du musée d'histoire naturelle du comté de Los Angeles, et le conservateur du « Dinosaur Hall » de ce musée[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luis María Chiappe est un paléontologue et un paléo-ornithologue américain, né à Buenos Aires en Argentine qui s'est fait connaître surtout pour sa découverte des premiers nids de sauropodes en Patagonie en 1997. Il est l'actuel vice-président des recherches et des collections du musée d'histoire naturelle du comté de Los Angeles, et le conservateur du « Dinosaur Hall » de ce musée.
 Il a été précédemment chercheur post-doctorant au muséum américain d'histoire naturelle, à New York.  
 Il est célèbre mondialement pour ses recherches sur l'origine des premiers oiseaux.
 </t>
@@ -513,7 +525,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En plus de ses nombreuses publications, il a publié ou collaboré aux livres suivants :
 (en) Chiappe, L.M. Qingjin, M. 2016. Birds of Stone.(Johns Hopkins University Press, 2016),  (ISBN 978-1421420240).
